--- a/artfynd/A 65026-2021.xlsx
+++ b/artfynd/A 65026-2021.xlsx
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>571585.2047297558</v>
+        <v>571585</v>
       </c>
       <c r="R14" t="n">
-        <v>6715465.819824858</v>
+        <v>6715466</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2207,19 +2207,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
